--- a/06 practice-myself_codes_notes/99 reseach notes/0101 研究过程问题解决及经验反思.xlsx
+++ b/06 practice-myself_codes_notes/99 reseach notes/0101 研究过程问题解决及经验反思.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\E-DATA-GROUNP\github\02-research\06 practice-myself\研究笔记\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\E-DATA-GROUNP\github\02-research\06 practice-myself_codes_notes\99 reseach notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EA8E2F8-38D6-498B-9877-8E868AD641B3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE6E2D67-4AC1-4E81-AA17-348D0BED3460}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>solve ?</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,10 +71,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>解决方案：工具箱中没resampc.m文件，只有.c文件 这里要用到一个知识就是在Matlab中使用c文件的方法 需要安装tdm64-gcc 下载链接http://tdm-gcc.tdragon.net/download 相应博客地址：https://blog.csdn.net/zhanshen112/article/details/79484031</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>轮廓波工具箱代码报错</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -100,6 +96,18 @@
   </si>
   <si>
     <t>1 程序分解中不要去钻牛角尖 不一定非要弄懂fbdec_1中非是怎么运行的 而是要跳出这个死循环 2 程序分解方法是对的 最重要的是和paper_轮廓波变换原理及其构造方法_图9 方向滤波分解 结合起来看 还有paper_轮廓波变换的理论研究与应用_博士毕业论文结合起来 3 所掌握的内容应当写成报告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决方案：工具箱中没resampc.m文件，只有.c文件 这里要用到一个知识就是在Matlab中使用c文件的方法 需要安装tdm64-gcc 下载链接http://tdm-gcc.tdragon.net/download 相应博客地址：https://blog.csdn.net/zhanshen112/article/details/79484031 使用规则：      1 在使用c文件的m函数中添加mex c函数名.c                                                  2 在c文件前添加#include "mex.h"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>imwrite写入的图像总是异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决方案：将要写入的图像转化为uint8格式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -520,8 +528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM377"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:I10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -713,7 +721,7 @@
     </row>
     <row r="5" spans="1:39" ht="14.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
@@ -799,9 +807,9 @@
       <c r="AL6" s="1"/>
       <c r="AM6" s="1"/>
     </row>
-    <row r="7" spans="1:39" ht="68.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:39" ht="110" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -813,7 +821,7 @@
       <c r="I7" s="9"/>
       <c r="J7" s="6"/>
       <c r="K7" s="8" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
@@ -846,7 +854,7 @@
     </row>
     <row r="8" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A8" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -858,7 +866,7 @@
       <c r="I8" s="9"/>
       <c r="J8" s="6"/>
       <c r="K8" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
@@ -891,7 +899,7 @@
     </row>
     <row r="9" spans="1:39" ht="14.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
@@ -934,7 +942,7 @@
     </row>
     <row r="10" spans="1:39" ht="71" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -946,7 +954,7 @@
       <c r="I10" s="9"/>
       <c r="J10" s="6"/>
       <c r="K10" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
@@ -978,7 +986,9 @@
       <c r="AM10" s="1"/>
     </row>
     <row r="11" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A11" s="8"/>
+      <c r="A11" s="8" t="s">
+        <v>19</v>
+      </c>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -987,8 +997,10 @@
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="8"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>

--- a/06 practice-myself_codes_notes/99 reseach notes/0101 研究过程问题解决及经验反思.xlsx
+++ b/06 practice-myself_codes_notes/99 reseach notes/0101 研究过程问题解决及经验反思.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\E-DATA-GROUNP\github\02-research\06 practice-myself_codes_notes\99 reseach notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE6E2D67-4AC1-4E81-AA17-348D0BED3460}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1F13955-CD2E-41E8-A5BD-435439ED078B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>solve ?</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -108,6 +108,14 @@
   </si>
   <si>
     <t>解决方案：将要写入的图像转化为uint8格式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整理前人的论文代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整理过程没有反思 导致做了些无用功</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -225,6 +233,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -238,12 +252,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -529,7 +537,7 @@
   <dimension ref="A1:AM377"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="K12" sqref="K12:Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -538,29 +546,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
       <c r="J1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
@@ -585,17 +593,17 @@
       <c r="AM1" s="1"/>
     </row>
     <row r="2" spans="1:39" ht="85.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
       <c r="J2" s="6"/>
       <c r="K2" s="8" t="s">
         <v>4</v>
@@ -720,25 +728,25 @@
       <c r="AM4" s="1"/>
     </row>
     <row r="5" spans="1:39" ht="14.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
@@ -898,25 +906,25 @@
       <c r="AM8" s="1"/>
     </row>
     <row r="9" spans="1:39" ht="14.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
@@ -1031,7 +1039,9 @@
       <c r="AM11" s="1"/>
     </row>
     <row r="12" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A12" s="8"/>
+      <c r="A12" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -1040,8 +1050,10 @@
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="8"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
@@ -16038,362 +16050,266 @@
     </row>
   </sheetData>
   <mergeCells count="640">
-    <mergeCell ref="K374:Q374"/>
-    <mergeCell ref="K375:Q375"/>
-    <mergeCell ref="K376:Q376"/>
-    <mergeCell ref="K368:Q368"/>
-    <mergeCell ref="K369:Q369"/>
-    <mergeCell ref="K370:Q370"/>
-    <mergeCell ref="K371:Q371"/>
-    <mergeCell ref="K372:Q372"/>
-    <mergeCell ref="K373:Q373"/>
-    <mergeCell ref="K362:Q362"/>
-    <mergeCell ref="K363:Q363"/>
-    <mergeCell ref="K364:Q364"/>
-    <mergeCell ref="K365:Q365"/>
-    <mergeCell ref="K366:Q366"/>
-    <mergeCell ref="K367:Q367"/>
-    <mergeCell ref="K356:Q356"/>
-    <mergeCell ref="K357:Q357"/>
-    <mergeCell ref="K358:Q358"/>
-    <mergeCell ref="K359:Q359"/>
-    <mergeCell ref="K360:Q360"/>
-    <mergeCell ref="K361:Q361"/>
-    <mergeCell ref="K350:Q350"/>
-    <mergeCell ref="K351:Q351"/>
-    <mergeCell ref="K352:Q352"/>
-    <mergeCell ref="K353:Q353"/>
-    <mergeCell ref="K354:Q354"/>
-    <mergeCell ref="K355:Q355"/>
-    <mergeCell ref="K344:Q344"/>
-    <mergeCell ref="K345:Q345"/>
-    <mergeCell ref="K346:Q346"/>
-    <mergeCell ref="K347:Q347"/>
-    <mergeCell ref="K348:Q348"/>
-    <mergeCell ref="K349:Q349"/>
-    <mergeCell ref="K338:Q338"/>
-    <mergeCell ref="K339:Q339"/>
-    <mergeCell ref="K340:Q340"/>
-    <mergeCell ref="K341:Q341"/>
-    <mergeCell ref="K342:Q342"/>
-    <mergeCell ref="K343:Q343"/>
-    <mergeCell ref="K332:Q332"/>
-    <mergeCell ref="K333:Q333"/>
-    <mergeCell ref="K334:Q334"/>
-    <mergeCell ref="K335:Q335"/>
-    <mergeCell ref="K336:Q336"/>
-    <mergeCell ref="K337:Q337"/>
-    <mergeCell ref="K326:Q326"/>
-    <mergeCell ref="K327:Q327"/>
-    <mergeCell ref="K328:Q328"/>
-    <mergeCell ref="K329:Q329"/>
-    <mergeCell ref="K330:Q330"/>
-    <mergeCell ref="K331:Q331"/>
-    <mergeCell ref="K320:Q320"/>
-    <mergeCell ref="K321:Q321"/>
-    <mergeCell ref="K322:Q322"/>
-    <mergeCell ref="K323:Q323"/>
-    <mergeCell ref="K324:Q324"/>
-    <mergeCell ref="K325:Q325"/>
-    <mergeCell ref="K314:Q314"/>
-    <mergeCell ref="K315:Q315"/>
-    <mergeCell ref="K316:Q316"/>
-    <mergeCell ref="K317:Q317"/>
-    <mergeCell ref="K318:Q318"/>
-    <mergeCell ref="K319:Q319"/>
-    <mergeCell ref="K308:Q308"/>
-    <mergeCell ref="K309:Q309"/>
-    <mergeCell ref="K310:Q310"/>
-    <mergeCell ref="K311:Q311"/>
-    <mergeCell ref="K312:Q312"/>
-    <mergeCell ref="K313:Q313"/>
-    <mergeCell ref="K302:Q302"/>
-    <mergeCell ref="K303:Q303"/>
-    <mergeCell ref="K304:Q304"/>
-    <mergeCell ref="K305:Q305"/>
-    <mergeCell ref="K306:Q306"/>
-    <mergeCell ref="K307:Q307"/>
-    <mergeCell ref="K296:Q296"/>
-    <mergeCell ref="K297:Q297"/>
-    <mergeCell ref="K298:Q298"/>
-    <mergeCell ref="K299:Q299"/>
-    <mergeCell ref="K300:Q300"/>
-    <mergeCell ref="K301:Q301"/>
-    <mergeCell ref="K290:Q290"/>
-    <mergeCell ref="K291:Q291"/>
-    <mergeCell ref="K292:Q292"/>
-    <mergeCell ref="K293:Q293"/>
-    <mergeCell ref="K294:Q294"/>
-    <mergeCell ref="K295:Q295"/>
-    <mergeCell ref="K284:Q284"/>
-    <mergeCell ref="K285:Q285"/>
-    <mergeCell ref="K286:Q286"/>
-    <mergeCell ref="K287:Q287"/>
-    <mergeCell ref="K288:Q288"/>
-    <mergeCell ref="K289:Q289"/>
-    <mergeCell ref="K278:Q278"/>
-    <mergeCell ref="K279:Q279"/>
-    <mergeCell ref="K280:Q280"/>
-    <mergeCell ref="K281:Q281"/>
-    <mergeCell ref="K282:Q282"/>
-    <mergeCell ref="K283:Q283"/>
-    <mergeCell ref="K272:Q272"/>
-    <mergeCell ref="K273:Q273"/>
-    <mergeCell ref="K274:Q274"/>
-    <mergeCell ref="K275:Q275"/>
-    <mergeCell ref="K276:Q276"/>
-    <mergeCell ref="K277:Q277"/>
-    <mergeCell ref="K266:Q266"/>
-    <mergeCell ref="K267:Q267"/>
-    <mergeCell ref="K268:Q268"/>
-    <mergeCell ref="K269:Q269"/>
-    <mergeCell ref="K270:Q270"/>
-    <mergeCell ref="K271:Q271"/>
-    <mergeCell ref="K260:Q260"/>
-    <mergeCell ref="K261:Q261"/>
-    <mergeCell ref="K262:Q262"/>
-    <mergeCell ref="K263:Q263"/>
-    <mergeCell ref="K264:Q264"/>
-    <mergeCell ref="K265:Q265"/>
-    <mergeCell ref="K254:Q254"/>
-    <mergeCell ref="K255:Q255"/>
-    <mergeCell ref="K256:Q256"/>
-    <mergeCell ref="K257:Q257"/>
-    <mergeCell ref="K258:Q258"/>
-    <mergeCell ref="K259:Q259"/>
-    <mergeCell ref="K248:Q248"/>
-    <mergeCell ref="K249:Q249"/>
-    <mergeCell ref="K250:Q250"/>
-    <mergeCell ref="K251:Q251"/>
-    <mergeCell ref="K252:Q252"/>
-    <mergeCell ref="K253:Q253"/>
-    <mergeCell ref="K242:Q242"/>
-    <mergeCell ref="K243:Q243"/>
-    <mergeCell ref="K244:Q244"/>
-    <mergeCell ref="K245:Q245"/>
-    <mergeCell ref="K246:Q246"/>
-    <mergeCell ref="K247:Q247"/>
-    <mergeCell ref="K236:Q236"/>
-    <mergeCell ref="K237:Q237"/>
-    <mergeCell ref="K238:Q238"/>
-    <mergeCell ref="K239:Q239"/>
-    <mergeCell ref="K240:Q240"/>
-    <mergeCell ref="K241:Q241"/>
-    <mergeCell ref="K230:Q230"/>
-    <mergeCell ref="K231:Q231"/>
-    <mergeCell ref="K232:Q232"/>
-    <mergeCell ref="K233:Q233"/>
-    <mergeCell ref="K234:Q234"/>
-    <mergeCell ref="K235:Q235"/>
-    <mergeCell ref="K224:Q224"/>
-    <mergeCell ref="K225:Q225"/>
-    <mergeCell ref="K226:Q226"/>
-    <mergeCell ref="K227:Q227"/>
-    <mergeCell ref="K228:Q228"/>
-    <mergeCell ref="K229:Q229"/>
-    <mergeCell ref="K218:Q218"/>
-    <mergeCell ref="K219:Q219"/>
-    <mergeCell ref="K220:Q220"/>
-    <mergeCell ref="K221:Q221"/>
-    <mergeCell ref="K222:Q222"/>
-    <mergeCell ref="K223:Q223"/>
-    <mergeCell ref="K212:Q212"/>
-    <mergeCell ref="K213:Q213"/>
-    <mergeCell ref="K214:Q214"/>
-    <mergeCell ref="K215:Q215"/>
-    <mergeCell ref="K216:Q216"/>
-    <mergeCell ref="K217:Q217"/>
-    <mergeCell ref="K206:Q206"/>
-    <mergeCell ref="K207:Q207"/>
-    <mergeCell ref="K208:Q208"/>
-    <mergeCell ref="K209:Q209"/>
-    <mergeCell ref="K210:Q210"/>
-    <mergeCell ref="K211:Q211"/>
-    <mergeCell ref="K200:Q200"/>
-    <mergeCell ref="K201:Q201"/>
-    <mergeCell ref="K202:Q202"/>
-    <mergeCell ref="K203:Q203"/>
-    <mergeCell ref="K204:Q204"/>
-    <mergeCell ref="K205:Q205"/>
-    <mergeCell ref="K194:Q194"/>
-    <mergeCell ref="K195:Q195"/>
-    <mergeCell ref="K196:Q196"/>
-    <mergeCell ref="K197:Q197"/>
-    <mergeCell ref="K198:Q198"/>
-    <mergeCell ref="K199:Q199"/>
-    <mergeCell ref="K188:Q188"/>
-    <mergeCell ref="K189:Q189"/>
-    <mergeCell ref="K190:Q190"/>
-    <mergeCell ref="K191:Q191"/>
-    <mergeCell ref="K192:Q192"/>
-    <mergeCell ref="K193:Q193"/>
-    <mergeCell ref="K182:Q182"/>
-    <mergeCell ref="K183:Q183"/>
-    <mergeCell ref="K184:Q184"/>
-    <mergeCell ref="K185:Q185"/>
-    <mergeCell ref="K186:Q186"/>
-    <mergeCell ref="K187:Q187"/>
-    <mergeCell ref="K176:Q176"/>
-    <mergeCell ref="K177:Q177"/>
-    <mergeCell ref="K178:Q178"/>
-    <mergeCell ref="K179:Q179"/>
-    <mergeCell ref="K180:Q180"/>
-    <mergeCell ref="K181:Q181"/>
-    <mergeCell ref="K170:Q170"/>
-    <mergeCell ref="K171:Q171"/>
-    <mergeCell ref="K172:Q172"/>
-    <mergeCell ref="K173:Q173"/>
-    <mergeCell ref="K174:Q174"/>
-    <mergeCell ref="K175:Q175"/>
-    <mergeCell ref="K164:Q164"/>
-    <mergeCell ref="K165:Q165"/>
-    <mergeCell ref="K166:Q166"/>
-    <mergeCell ref="K167:Q167"/>
-    <mergeCell ref="K168:Q168"/>
-    <mergeCell ref="K169:Q169"/>
-    <mergeCell ref="K158:Q158"/>
-    <mergeCell ref="K159:Q159"/>
-    <mergeCell ref="K160:Q160"/>
-    <mergeCell ref="K161:Q161"/>
-    <mergeCell ref="K162:Q162"/>
-    <mergeCell ref="K163:Q163"/>
-    <mergeCell ref="K152:Q152"/>
-    <mergeCell ref="K153:Q153"/>
-    <mergeCell ref="K154:Q154"/>
-    <mergeCell ref="K155:Q155"/>
-    <mergeCell ref="K156:Q156"/>
-    <mergeCell ref="K157:Q157"/>
-    <mergeCell ref="K146:Q146"/>
-    <mergeCell ref="K147:Q147"/>
-    <mergeCell ref="K148:Q148"/>
-    <mergeCell ref="K149:Q149"/>
-    <mergeCell ref="K150:Q150"/>
-    <mergeCell ref="K151:Q151"/>
-    <mergeCell ref="K140:Q140"/>
-    <mergeCell ref="K141:Q141"/>
-    <mergeCell ref="K142:Q142"/>
-    <mergeCell ref="K143:Q143"/>
-    <mergeCell ref="K144:Q144"/>
-    <mergeCell ref="K145:Q145"/>
-    <mergeCell ref="K134:Q134"/>
-    <mergeCell ref="K135:Q135"/>
-    <mergeCell ref="K136:Q136"/>
-    <mergeCell ref="K137:Q137"/>
-    <mergeCell ref="K138:Q138"/>
-    <mergeCell ref="K139:Q139"/>
-    <mergeCell ref="K128:Q128"/>
-    <mergeCell ref="K129:Q129"/>
-    <mergeCell ref="K130:Q130"/>
-    <mergeCell ref="K131:Q131"/>
-    <mergeCell ref="K132:Q132"/>
-    <mergeCell ref="K133:Q133"/>
-    <mergeCell ref="K122:Q122"/>
-    <mergeCell ref="K123:Q123"/>
-    <mergeCell ref="K124:Q124"/>
-    <mergeCell ref="K125:Q125"/>
-    <mergeCell ref="K126:Q126"/>
-    <mergeCell ref="K127:Q127"/>
-    <mergeCell ref="K116:Q116"/>
-    <mergeCell ref="K117:Q117"/>
-    <mergeCell ref="K118:Q118"/>
-    <mergeCell ref="K119:Q119"/>
-    <mergeCell ref="K120:Q120"/>
-    <mergeCell ref="K121:Q121"/>
-    <mergeCell ref="K110:Q110"/>
-    <mergeCell ref="K111:Q111"/>
-    <mergeCell ref="K112:Q112"/>
-    <mergeCell ref="K113:Q113"/>
-    <mergeCell ref="K114:Q114"/>
-    <mergeCell ref="K115:Q115"/>
-    <mergeCell ref="K104:Q104"/>
-    <mergeCell ref="K105:Q105"/>
-    <mergeCell ref="K106:Q106"/>
-    <mergeCell ref="K107:Q107"/>
-    <mergeCell ref="K108:Q108"/>
-    <mergeCell ref="K109:Q109"/>
-    <mergeCell ref="K98:Q98"/>
-    <mergeCell ref="K99:Q99"/>
-    <mergeCell ref="K100:Q100"/>
-    <mergeCell ref="K101:Q101"/>
-    <mergeCell ref="K102:Q102"/>
-    <mergeCell ref="K103:Q103"/>
-    <mergeCell ref="K92:Q92"/>
-    <mergeCell ref="K93:Q93"/>
-    <mergeCell ref="K94:Q94"/>
-    <mergeCell ref="K95:Q95"/>
-    <mergeCell ref="K96:Q96"/>
-    <mergeCell ref="K97:Q97"/>
-    <mergeCell ref="K86:Q86"/>
-    <mergeCell ref="K87:Q87"/>
-    <mergeCell ref="K88:Q88"/>
-    <mergeCell ref="K89:Q89"/>
-    <mergeCell ref="K90:Q90"/>
-    <mergeCell ref="K91:Q91"/>
-    <mergeCell ref="K80:Q80"/>
-    <mergeCell ref="K81:Q81"/>
-    <mergeCell ref="K82:Q82"/>
-    <mergeCell ref="K83:Q83"/>
-    <mergeCell ref="K84:Q84"/>
-    <mergeCell ref="K85:Q85"/>
-    <mergeCell ref="K74:Q74"/>
-    <mergeCell ref="K75:Q75"/>
-    <mergeCell ref="K76:Q76"/>
-    <mergeCell ref="K77:Q77"/>
-    <mergeCell ref="K78:Q78"/>
-    <mergeCell ref="K79:Q79"/>
-    <mergeCell ref="K68:Q68"/>
-    <mergeCell ref="K69:Q69"/>
-    <mergeCell ref="K70:Q70"/>
-    <mergeCell ref="K71:Q71"/>
-    <mergeCell ref="K72:Q72"/>
-    <mergeCell ref="K73:Q73"/>
-    <mergeCell ref="K62:Q62"/>
-    <mergeCell ref="K63:Q63"/>
-    <mergeCell ref="K64:Q64"/>
-    <mergeCell ref="K65:Q65"/>
-    <mergeCell ref="K66:Q66"/>
-    <mergeCell ref="K67:Q67"/>
-    <mergeCell ref="K56:Q56"/>
-    <mergeCell ref="K57:Q57"/>
-    <mergeCell ref="K58:Q58"/>
-    <mergeCell ref="K59:Q59"/>
-    <mergeCell ref="K60:Q60"/>
-    <mergeCell ref="K61:Q61"/>
-    <mergeCell ref="K50:Q50"/>
-    <mergeCell ref="K51:Q51"/>
-    <mergeCell ref="K52:Q52"/>
-    <mergeCell ref="K53:Q53"/>
-    <mergeCell ref="K54:Q54"/>
-    <mergeCell ref="K55:Q55"/>
-    <mergeCell ref="K44:Q44"/>
-    <mergeCell ref="K45:Q45"/>
-    <mergeCell ref="K46:Q46"/>
-    <mergeCell ref="K47:Q47"/>
-    <mergeCell ref="K48:Q48"/>
-    <mergeCell ref="K49:Q49"/>
-    <mergeCell ref="K38:Q38"/>
-    <mergeCell ref="K39:Q39"/>
-    <mergeCell ref="K40:Q40"/>
-    <mergeCell ref="K41:Q41"/>
-    <mergeCell ref="K42:Q42"/>
-    <mergeCell ref="K43:Q43"/>
-    <mergeCell ref="K32:Q32"/>
-    <mergeCell ref="K33:Q33"/>
-    <mergeCell ref="K34:Q34"/>
-    <mergeCell ref="K35:Q35"/>
-    <mergeCell ref="K36:Q36"/>
-    <mergeCell ref="K37:Q37"/>
-    <mergeCell ref="K27:Q27"/>
-    <mergeCell ref="K28:Q28"/>
-    <mergeCell ref="K29:Q29"/>
-    <mergeCell ref="K30:Q30"/>
-    <mergeCell ref="K31:Q31"/>
-    <mergeCell ref="K20:Q20"/>
-    <mergeCell ref="K21:Q21"/>
-    <mergeCell ref="K22:Q22"/>
-    <mergeCell ref="K23:Q23"/>
-    <mergeCell ref="K24:Q24"/>
-    <mergeCell ref="K25:Q25"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A5:Q5"/>
+    <mergeCell ref="A9:Q9"/>
+    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="A18:I18"/>
+    <mergeCell ref="A19:I19"/>
+    <mergeCell ref="A20:I20"/>
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="A11:I11"/>
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="A13:I13"/>
+    <mergeCell ref="A14:I14"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="A16:I16"/>
+    <mergeCell ref="A29:I29"/>
+    <mergeCell ref="A30:I30"/>
+    <mergeCell ref="A31:I31"/>
+    <mergeCell ref="A32:I32"/>
+    <mergeCell ref="A33:I33"/>
+    <mergeCell ref="A34:I34"/>
+    <mergeCell ref="A23:I23"/>
+    <mergeCell ref="A24:I24"/>
+    <mergeCell ref="A25:I25"/>
+    <mergeCell ref="A26:I26"/>
+    <mergeCell ref="A27:I27"/>
+    <mergeCell ref="A28:I28"/>
+    <mergeCell ref="A41:I41"/>
+    <mergeCell ref="A42:I42"/>
+    <mergeCell ref="A43:I43"/>
+    <mergeCell ref="A44:I44"/>
+    <mergeCell ref="A45:I45"/>
+    <mergeCell ref="A46:I46"/>
+    <mergeCell ref="A35:I35"/>
+    <mergeCell ref="A36:I36"/>
+    <mergeCell ref="A37:I37"/>
+    <mergeCell ref="A38:I38"/>
+    <mergeCell ref="A39:I39"/>
+    <mergeCell ref="A40:I40"/>
+    <mergeCell ref="A64:I64"/>
+    <mergeCell ref="A53:I53"/>
+    <mergeCell ref="A54:I54"/>
+    <mergeCell ref="A55:I55"/>
+    <mergeCell ref="A56:I56"/>
+    <mergeCell ref="A57:I57"/>
+    <mergeCell ref="A58:I58"/>
+    <mergeCell ref="A47:I47"/>
+    <mergeCell ref="A48:I48"/>
+    <mergeCell ref="A49:I49"/>
+    <mergeCell ref="A50:I50"/>
+    <mergeCell ref="A51:I51"/>
+    <mergeCell ref="A52:I52"/>
+    <mergeCell ref="A73:I73"/>
+    <mergeCell ref="A74:I74"/>
+    <mergeCell ref="A75:I75"/>
+    <mergeCell ref="A76:I76"/>
+    <mergeCell ref="A77:I77"/>
+    <mergeCell ref="A78:I78"/>
+    <mergeCell ref="A71:I71"/>
+    <mergeCell ref="K1:Q1"/>
+    <mergeCell ref="A72:I72"/>
+    <mergeCell ref="K10:Q10"/>
+    <mergeCell ref="K11:Q11"/>
+    <mergeCell ref="K12:Q12"/>
+    <mergeCell ref="K13:Q13"/>
+    <mergeCell ref="A65:I65"/>
+    <mergeCell ref="A66:I66"/>
+    <mergeCell ref="A67:I67"/>
+    <mergeCell ref="A68:I68"/>
+    <mergeCell ref="A69:I69"/>
+    <mergeCell ref="A70:I70"/>
+    <mergeCell ref="A59:I59"/>
+    <mergeCell ref="A60:I60"/>
+    <mergeCell ref="A61:I61"/>
+    <mergeCell ref="A62:I62"/>
+    <mergeCell ref="A63:I63"/>
+    <mergeCell ref="A85:I85"/>
+    <mergeCell ref="A86:I86"/>
+    <mergeCell ref="A87:I87"/>
+    <mergeCell ref="A88:I88"/>
+    <mergeCell ref="A89:I89"/>
+    <mergeCell ref="A90:I90"/>
+    <mergeCell ref="A79:I79"/>
+    <mergeCell ref="A80:I80"/>
+    <mergeCell ref="A81:I81"/>
+    <mergeCell ref="A82:I82"/>
+    <mergeCell ref="A83:I83"/>
+    <mergeCell ref="A84:I84"/>
+    <mergeCell ref="A97:I97"/>
+    <mergeCell ref="A98:I98"/>
+    <mergeCell ref="A99:I99"/>
+    <mergeCell ref="A100:I100"/>
+    <mergeCell ref="A101:I101"/>
+    <mergeCell ref="A102:I102"/>
+    <mergeCell ref="A91:I91"/>
+    <mergeCell ref="A92:I92"/>
+    <mergeCell ref="A93:I93"/>
+    <mergeCell ref="A94:I94"/>
+    <mergeCell ref="A95:I95"/>
+    <mergeCell ref="A96:I96"/>
+    <mergeCell ref="A109:I109"/>
+    <mergeCell ref="A110:I110"/>
+    <mergeCell ref="A111:I111"/>
+    <mergeCell ref="A112:I112"/>
+    <mergeCell ref="A113:I113"/>
+    <mergeCell ref="A114:I114"/>
+    <mergeCell ref="A103:I103"/>
+    <mergeCell ref="A104:I104"/>
+    <mergeCell ref="A105:I105"/>
+    <mergeCell ref="A106:I106"/>
+    <mergeCell ref="A107:I107"/>
+    <mergeCell ref="A108:I108"/>
+    <mergeCell ref="A121:I121"/>
+    <mergeCell ref="A122:I122"/>
+    <mergeCell ref="A123:I123"/>
+    <mergeCell ref="A124:I124"/>
+    <mergeCell ref="A125:I125"/>
+    <mergeCell ref="A126:I126"/>
+    <mergeCell ref="A115:I115"/>
+    <mergeCell ref="A116:I116"/>
+    <mergeCell ref="A117:I117"/>
+    <mergeCell ref="A118:I118"/>
+    <mergeCell ref="A119:I119"/>
+    <mergeCell ref="A120:I120"/>
+    <mergeCell ref="A133:I133"/>
+    <mergeCell ref="A134:I134"/>
+    <mergeCell ref="A135:I135"/>
+    <mergeCell ref="A136:I136"/>
+    <mergeCell ref="A137:I137"/>
+    <mergeCell ref="A138:I138"/>
+    <mergeCell ref="A127:I127"/>
+    <mergeCell ref="A128:I128"/>
+    <mergeCell ref="A129:I129"/>
+    <mergeCell ref="A130:I130"/>
+    <mergeCell ref="A131:I131"/>
+    <mergeCell ref="A132:I132"/>
+    <mergeCell ref="A145:I145"/>
+    <mergeCell ref="A146:I146"/>
+    <mergeCell ref="A147:I147"/>
+    <mergeCell ref="A148:I148"/>
+    <mergeCell ref="A149:I149"/>
+    <mergeCell ref="A150:I150"/>
+    <mergeCell ref="A139:I139"/>
+    <mergeCell ref="A140:I140"/>
+    <mergeCell ref="A141:I141"/>
+    <mergeCell ref="A142:I142"/>
+    <mergeCell ref="A143:I143"/>
+    <mergeCell ref="A144:I144"/>
+    <mergeCell ref="A157:I157"/>
+    <mergeCell ref="A158:I158"/>
+    <mergeCell ref="A159:I159"/>
+    <mergeCell ref="A160:I160"/>
+    <mergeCell ref="A161:I161"/>
+    <mergeCell ref="A162:I162"/>
+    <mergeCell ref="A151:I151"/>
+    <mergeCell ref="A152:I152"/>
+    <mergeCell ref="A153:I153"/>
+    <mergeCell ref="A154:I154"/>
+    <mergeCell ref="A155:I155"/>
+    <mergeCell ref="A156:I156"/>
+    <mergeCell ref="A169:I169"/>
+    <mergeCell ref="A170:I170"/>
+    <mergeCell ref="A171:I171"/>
+    <mergeCell ref="A172:I172"/>
+    <mergeCell ref="A173:I173"/>
+    <mergeCell ref="A174:I174"/>
+    <mergeCell ref="A163:I163"/>
+    <mergeCell ref="A164:I164"/>
+    <mergeCell ref="A165:I165"/>
+    <mergeCell ref="A166:I166"/>
+    <mergeCell ref="A167:I167"/>
+    <mergeCell ref="A168:I168"/>
+    <mergeCell ref="A181:I181"/>
+    <mergeCell ref="A182:I182"/>
+    <mergeCell ref="A183:I183"/>
+    <mergeCell ref="A184:I184"/>
+    <mergeCell ref="A185:I185"/>
+    <mergeCell ref="A186:I186"/>
+    <mergeCell ref="A175:I175"/>
+    <mergeCell ref="A176:I176"/>
+    <mergeCell ref="A177:I177"/>
+    <mergeCell ref="A178:I178"/>
+    <mergeCell ref="A179:I179"/>
+    <mergeCell ref="A180:I180"/>
+    <mergeCell ref="A193:I193"/>
+    <mergeCell ref="A194:I194"/>
+    <mergeCell ref="A195:I195"/>
+    <mergeCell ref="A196:I196"/>
+    <mergeCell ref="A197:I197"/>
+    <mergeCell ref="A198:I198"/>
+    <mergeCell ref="A187:I187"/>
+    <mergeCell ref="A188:I188"/>
+    <mergeCell ref="A189:I189"/>
+    <mergeCell ref="A190:I190"/>
+    <mergeCell ref="A191:I191"/>
+    <mergeCell ref="A192:I192"/>
+    <mergeCell ref="A205:I205"/>
+    <mergeCell ref="A206:I206"/>
+    <mergeCell ref="A207:I207"/>
+    <mergeCell ref="A208:I208"/>
+    <mergeCell ref="A209:I209"/>
+    <mergeCell ref="A210:I210"/>
+    <mergeCell ref="A199:I199"/>
+    <mergeCell ref="A200:I200"/>
+    <mergeCell ref="A201:I201"/>
+    <mergeCell ref="A202:I202"/>
+    <mergeCell ref="A203:I203"/>
+    <mergeCell ref="A204:I204"/>
+    <mergeCell ref="A217:I217"/>
+    <mergeCell ref="A218:I218"/>
+    <mergeCell ref="A219:I219"/>
+    <mergeCell ref="A220:I220"/>
+    <mergeCell ref="A221:I221"/>
+    <mergeCell ref="A222:I222"/>
+    <mergeCell ref="A211:I211"/>
+    <mergeCell ref="A212:I212"/>
+    <mergeCell ref="A213:I213"/>
+    <mergeCell ref="A214:I214"/>
+    <mergeCell ref="A215:I215"/>
+    <mergeCell ref="A216:I216"/>
+    <mergeCell ref="A229:I229"/>
+    <mergeCell ref="A230:I230"/>
+    <mergeCell ref="A231:I231"/>
+    <mergeCell ref="A232:I232"/>
+    <mergeCell ref="A233:I233"/>
+    <mergeCell ref="A234:I234"/>
+    <mergeCell ref="A223:I223"/>
+    <mergeCell ref="A224:I224"/>
+    <mergeCell ref="A225:I225"/>
+    <mergeCell ref="A226:I226"/>
+    <mergeCell ref="A227:I227"/>
+    <mergeCell ref="A228:I228"/>
+    <mergeCell ref="A241:I241"/>
+    <mergeCell ref="A242:I242"/>
+    <mergeCell ref="A243:I243"/>
+    <mergeCell ref="A244:I244"/>
+    <mergeCell ref="A245:I245"/>
+    <mergeCell ref="A246:I246"/>
+    <mergeCell ref="A235:I235"/>
+    <mergeCell ref="A236:I236"/>
+    <mergeCell ref="A237:I237"/>
+    <mergeCell ref="A238:I238"/>
+    <mergeCell ref="A239:I239"/>
+    <mergeCell ref="A240:I240"/>
+    <mergeCell ref="A256:I256"/>
+    <mergeCell ref="A257:I257"/>
+    <mergeCell ref="A258:I258"/>
+    <mergeCell ref="A247:I247"/>
+    <mergeCell ref="A248:I248"/>
+    <mergeCell ref="A249:I249"/>
+    <mergeCell ref="A250:I250"/>
+    <mergeCell ref="A251:I251"/>
+    <mergeCell ref="A252:I252"/>
     <mergeCell ref="K14:Q14"/>
     <mergeCell ref="K15:Q15"/>
     <mergeCell ref="K16:Q16"/>
@@ -16418,266 +16334,362 @@
     <mergeCell ref="A254:I254"/>
     <mergeCell ref="A255:I255"/>
     <mergeCell ref="K26:Q26"/>
-    <mergeCell ref="A256:I256"/>
-    <mergeCell ref="A257:I257"/>
-    <mergeCell ref="A258:I258"/>
-    <mergeCell ref="A247:I247"/>
-    <mergeCell ref="A248:I248"/>
-    <mergeCell ref="A249:I249"/>
-    <mergeCell ref="A250:I250"/>
-    <mergeCell ref="A251:I251"/>
-    <mergeCell ref="A252:I252"/>
-    <mergeCell ref="A241:I241"/>
-    <mergeCell ref="A242:I242"/>
-    <mergeCell ref="A243:I243"/>
-    <mergeCell ref="A244:I244"/>
-    <mergeCell ref="A245:I245"/>
-    <mergeCell ref="A246:I246"/>
-    <mergeCell ref="A235:I235"/>
-    <mergeCell ref="A236:I236"/>
-    <mergeCell ref="A237:I237"/>
-    <mergeCell ref="A238:I238"/>
-    <mergeCell ref="A239:I239"/>
-    <mergeCell ref="A240:I240"/>
-    <mergeCell ref="A229:I229"/>
-    <mergeCell ref="A230:I230"/>
-    <mergeCell ref="A231:I231"/>
-    <mergeCell ref="A232:I232"/>
-    <mergeCell ref="A233:I233"/>
-    <mergeCell ref="A234:I234"/>
-    <mergeCell ref="A223:I223"/>
-    <mergeCell ref="A224:I224"/>
-    <mergeCell ref="A225:I225"/>
-    <mergeCell ref="A226:I226"/>
-    <mergeCell ref="A227:I227"/>
-    <mergeCell ref="A228:I228"/>
-    <mergeCell ref="A217:I217"/>
-    <mergeCell ref="A218:I218"/>
-    <mergeCell ref="A219:I219"/>
-    <mergeCell ref="A220:I220"/>
-    <mergeCell ref="A221:I221"/>
-    <mergeCell ref="A222:I222"/>
-    <mergeCell ref="A211:I211"/>
-    <mergeCell ref="A212:I212"/>
-    <mergeCell ref="A213:I213"/>
-    <mergeCell ref="A214:I214"/>
-    <mergeCell ref="A215:I215"/>
-    <mergeCell ref="A216:I216"/>
-    <mergeCell ref="A205:I205"/>
-    <mergeCell ref="A206:I206"/>
-    <mergeCell ref="A207:I207"/>
-    <mergeCell ref="A208:I208"/>
-    <mergeCell ref="A209:I209"/>
-    <mergeCell ref="A210:I210"/>
-    <mergeCell ref="A199:I199"/>
-    <mergeCell ref="A200:I200"/>
-    <mergeCell ref="A201:I201"/>
-    <mergeCell ref="A202:I202"/>
-    <mergeCell ref="A203:I203"/>
-    <mergeCell ref="A204:I204"/>
-    <mergeCell ref="A193:I193"/>
-    <mergeCell ref="A194:I194"/>
-    <mergeCell ref="A195:I195"/>
-    <mergeCell ref="A196:I196"/>
-    <mergeCell ref="A197:I197"/>
-    <mergeCell ref="A198:I198"/>
-    <mergeCell ref="A187:I187"/>
-    <mergeCell ref="A188:I188"/>
-    <mergeCell ref="A189:I189"/>
-    <mergeCell ref="A190:I190"/>
-    <mergeCell ref="A191:I191"/>
-    <mergeCell ref="A192:I192"/>
-    <mergeCell ref="A181:I181"/>
-    <mergeCell ref="A182:I182"/>
-    <mergeCell ref="A183:I183"/>
-    <mergeCell ref="A184:I184"/>
-    <mergeCell ref="A185:I185"/>
-    <mergeCell ref="A186:I186"/>
-    <mergeCell ref="A175:I175"/>
-    <mergeCell ref="A176:I176"/>
-    <mergeCell ref="A177:I177"/>
-    <mergeCell ref="A178:I178"/>
-    <mergeCell ref="A179:I179"/>
-    <mergeCell ref="A180:I180"/>
-    <mergeCell ref="A169:I169"/>
-    <mergeCell ref="A170:I170"/>
-    <mergeCell ref="A171:I171"/>
-    <mergeCell ref="A172:I172"/>
-    <mergeCell ref="A173:I173"/>
-    <mergeCell ref="A174:I174"/>
-    <mergeCell ref="A163:I163"/>
-    <mergeCell ref="A164:I164"/>
-    <mergeCell ref="A165:I165"/>
-    <mergeCell ref="A166:I166"/>
-    <mergeCell ref="A167:I167"/>
-    <mergeCell ref="A168:I168"/>
-    <mergeCell ref="A157:I157"/>
-    <mergeCell ref="A158:I158"/>
-    <mergeCell ref="A159:I159"/>
-    <mergeCell ref="A160:I160"/>
-    <mergeCell ref="A161:I161"/>
-    <mergeCell ref="A162:I162"/>
-    <mergeCell ref="A151:I151"/>
-    <mergeCell ref="A152:I152"/>
-    <mergeCell ref="A153:I153"/>
-    <mergeCell ref="A154:I154"/>
-    <mergeCell ref="A155:I155"/>
-    <mergeCell ref="A156:I156"/>
-    <mergeCell ref="A145:I145"/>
-    <mergeCell ref="A146:I146"/>
-    <mergeCell ref="A147:I147"/>
-    <mergeCell ref="A148:I148"/>
-    <mergeCell ref="A149:I149"/>
-    <mergeCell ref="A150:I150"/>
-    <mergeCell ref="A139:I139"/>
-    <mergeCell ref="A140:I140"/>
-    <mergeCell ref="A141:I141"/>
-    <mergeCell ref="A142:I142"/>
-    <mergeCell ref="A143:I143"/>
-    <mergeCell ref="A144:I144"/>
-    <mergeCell ref="A133:I133"/>
-    <mergeCell ref="A134:I134"/>
-    <mergeCell ref="A135:I135"/>
-    <mergeCell ref="A136:I136"/>
-    <mergeCell ref="A137:I137"/>
-    <mergeCell ref="A138:I138"/>
-    <mergeCell ref="A127:I127"/>
-    <mergeCell ref="A128:I128"/>
-    <mergeCell ref="A129:I129"/>
-    <mergeCell ref="A130:I130"/>
-    <mergeCell ref="A131:I131"/>
-    <mergeCell ref="A132:I132"/>
-    <mergeCell ref="A121:I121"/>
-    <mergeCell ref="A122:I122"/>
-    <mergeCell ref="A123:I123"/>
-    <mergeCell ref="A124:I124"/>
-    <mergeCell ref="A125:I125"/>
-    <mergeCell ref="A126:I126"/>
-    <mergeCell ref="A115:I115"/>
-    <mergeCell ref="A116:I116"/>
-    <mergeCell ref="A117:I117"/>
-    <mergeCell ref="A118:I118"/>
-    <mergeCell ref="A119:I119"/>
-    <mergeCell ref="A120:I120"/>
-    <mergeCell ref="A109:I109"/>
-    <mergeCell ref="A110:I110"/>
-    <mergeCell ref="A111:I111"/>
-    <mergeCell ref="A112:I112"/>
-    <mergeCell ref="A113:I113"/>
-    <mergeCell ref="A114:I114"/>
-    <mergeCell ref="A103:I103"/>
-    <mergeCell ref="A104:I104"/>
-    <mergeCell ref="A105:I105"/>
-    <mergeCell ref="A106:I106"/>
-    <mergeCell ref="A107:I107"/>
-    <mergeCell ref="A108:I108"/>
-    <mergeCell ref="A97:I97"/>
-    <mergeCell ref="A98:I98"/>
-    <mergeCell ref="A99:I99"/>
-    <mergeCell ref="A100:I100"/>
-    <mergeCell ref="A101:I101"/>
-    <mergeCell ref="A102:I102"/>
-    <mergeCell ref="A91:I91"/>
-    <mergeCell ref="A92:I92"/>
-    <mergeCell ref="A93:I93"/>
-    <mergeCell ref="A94:I94"/>
-    <mergeCell ref="A95:I95"/>
-    <mergeCell ref="A96:I96"/>
-    <mergeCell ref="A85:I85"/>
-    <mergeCell ref="A86:I86"/>
-    <mergeCell ref="A87:I87"/>
-    <mergeCell ref="A88:I88"/>
-    <mergeCell ref="A89:I89"/>
-    <mergeCell ref="A90:I90"/>
-    <mergeCell ref="A79:I79"/>
-    <mergeCell ref="A80:I80"/>
-    <mergeCell ref="A81:I81"/>
-    <mergeCell ref="A82:I82"/>
-    <mergeCell ref="A83:I83"/>
-    <mergeCell ref="A84:I84"/>
-    <mergeCell ref="A73:I73"/>
-    <mergeCell ref="A74:I74"/>
-    <mergeCell ref="A75:I75"/>
-    <mergeCell ref="A76:I76"/>
-    <mergeCell ref="A77:I77"/>
-    <mergeCell ref="A78:I78"/>
-    <mergeCell ref="A71:I71"/>
-    <mergeCell ref="K1:Q1"/>
-    <mergeCell ref="A72:I72"/>
-    <mergeCell ref="K10:Q10"/>
-    <mergeCell ref="K11:Q11"/>
-    <mergeCell ref="K12:Q12"/>
-    <mergeCell ref="K13:Q13"/>
-    <mergeCell ref="A65:I65"/>
-    <mergeCell ref="A66:I66"/>
-    <mergeCell ref="A67:I67"/>
-    <mergeCell ref="A68:I68"/>
-    <mergeCell ref="A69:I69"/>
-    <mergeCell ref="A70:I70"/>
-    <mergeCell ref="A59:I59"/>
-    <mergeCell ref="A60:I60"/>
-    <mergeCell ref="A61:I61"/>
-    <mergeCell ref="A62:I62"/>
-    <mergeCell ref="A63:I63"/>
-    <mergeCell ref="A64:I64"/>
-    <mergeCell ref="A53:I53"/>
-    <mergeCell ref="A54:I54"/>
-    <mergeCell ref="A55:I55"/>
-    <mergeCell ref="A56:I56"/>
-    <mergeCell ref="A57:I57"/>
-    <mergeCell ref="A58:I58"/>
-    <mergeCell ref="A47:I47"/>
-    <mergeCell ref="A48:I48"/>
-    <mergeCell ref="A49:I49"/>
-    <mergeCell ref="A50:I50"/>
-    <mergeCell ref="A51:I51"/>
-    <mergeCell ref="A52:I52"/>
-    <mergeCell ref="A41:I41"/>
-    <mergeCell ref="A42:I42"/>
-    <mergeCell ref="A43:I43"/>
-    <mergeCell ref="A44:I44"/>
-    <mergeCell ref="A45:I45"/>
-    <mergeCell ref="A46:I46"/>
-    <mergeCell ref="A35:I35"/>
-    <mergeCell ref="A36:I36"/>
-    <mergeCell ref="A37:I37"/>
-    <mergeCell ref="A38:I38"/>
-    <mergeCell ref="A39:I39"/>
-    <mergeCell ref="A40:I40"/>
-    <mergeCell ref="A29:I29"/>
-    <mergeCell ref="A30:I30"/>
-    <mergeCell ref="A31:I31"/>
-    <mergeCell ref="A32:I32"/>
-    <mergeCell ref="A33:I33"/>
-    <mergeCell ref="A34:I34"/>
-    <mergeCell ref="A23:I23"/>
-    <mergeCell ref="A24:I24"/>
-    <mergeCell ref="A25:I25"/>
-    <mergeCell ref="A26:I26"/>
-    <mergeCell ref="A27:I27"/>
-    <mergeCell ref="A28:I28"/>
-    <mergeCell ref="A17:I17"/>
-    <mergeCell ref="A18:I18"/>
-    <mergeCell ref="A19:I19"/>
-    <mergeCell ref="A20:I20"/>
-    <mergeCell ref="A21:I21"/>
-    <mergeCell ref="A22:I22"/>
-    <mergeCell ref="A11:I11"/>
-    <mergeCell ref="A12:I12"/>
-    <mergeCell ref="A13:I13"/>
-    <mergeCell ref="A14:I14"/>
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="A16:I16"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A7:I7"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A5:Q5"/>
-    <mergeCell ref="A9:Q9"/>
+    <mergeCell ref="K27:Q27"/>
+    <mergeCell ref="K28:Q28"/>
+    <mergeCell ref="K29:Q29"/>
+    <mergeCell ref="K30:Q30"/>
+    <mergeCell ref="K31:Q31"/>
+    <mergeCell ref="K20:Q20"/>
+    <mergeCell ref="K21:Q21"/>
+    <mergeCell ref="K22:Q22"/>
+    <mergeCell ref="K23:Q23"/>
+    <mergeCell ref="K24:Q24"/>
+    <mergeCell ref="K25:Q25"/>
+    <mergeCell ref="K38:Q38"/>
+    <mergeCell ref="K39:Q39"/>
+    <mergeCell ref="K40:Q40"/>
+    <mergeCell ref="K41:Q41"/>
+    <mergeCell ref="K42:Q42"/>
+    <mergeCell ref="K43:Q43"/>
+    <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="K33:Q33"/>
+    <mergeCell ref="K34:Q34"/>
+    <mergeCell ref="K35:Q35"/>
+    <mergeCell ref="K36:Q36"/>
+    <mergeCell ref="K37:Q37"/>
+    <mergeCell ref="K50:Q50"/>
+    <mergeCell ref="K51:Q51"/>
+    <mergeCell ref="K52:Q52"/>
+    <mergeCell ref="K53:Q53"/>
+    <mergeCell ref="K54:Q54"/>
+    <mergeCell ref="K55:Q55"/>
+    <mergeCell ref="K44:Q44"/>
+    <mergeCell ref="K45:Q45"/>
+    <mergeCell ref="K46:Q46"/>
+    <mergeCell ref="K47:Q47"/>
+    <mergeCell ref="K48:Q48"/>
+    <mergeCell ref="K49:Q49"/>
+    <mergeCell ref="K62:Q62"/>
+    <mergeCell ref="K63:Q63"/>
+    <mergeCell ref="K64:Q64"/>
+    <mergeCell ref="K65:Q65"/>
+    <mergeCell ref="K66:Q66"/>
+    <mergeCell ref="K67:Q67"/>
+    <mergeCell ref="K56:Q56"/>
+    <mergeCell ref="K57:Q57"/>
+    <mergeCell ref="K58:Q58"/>
+    <mergeCell ref="K59:Q59"/>
+    <mergeCell ref="K60:Q60"/>
+    <mergeCell ref="K61:Q61"/>
+    <mergeCell ref="K74:Q74"/>
+    <mergeCell ref="K75:Q75"/>
+    <mergeCell ref="K76:Q76"/>
+    <mergeCell ref="K77:Q77"/>
+    <mergeCell ref="K78:Q78"/>
+    <mergeCell ref="K79:Q79"/>
+    <mergeCell ref="K68:Q68"/>
+    <mergeCell ref="K69:Q69"/>
+    <mergeCell ref="K70:Q70"/>
+    <mergeCell ref="K71:Q71"/>
+    <mergeCell ref="K72:Q72"/>
+    <mergeCell ref="K73:Q73"/>
+    <mergeCell ref="K86:Q86"/>
+    <mergeCell ref="K87:Q87"/>
+    <mergeCell ref="K88:Q88"/>
+    <mergeCell ref="K89:Q89"/>
+    <mergeCell ref="K90:Q90"/>
+    <mergeCell ref="K91:Q91"/>
+    <mergeCell ref="K80:Q80"/>
+    <mergeCell ref="K81:Q81"/>
+    <mergeCell ref="K82:Q82"/>
+    <mergeCell ref="K83:Q83"/>
+    <mergeCell ref="K84:Q84"/>
+    <mergeCell ref="K85:Q85"/>
+    <mergeCell ref="K98:Q98"/>
+    <mergeCell ref="K99:Q99"/>
+    <mergeCell ref="K100:Q100"/>
+    <mergeCell ref="K101:Q101"/>
+    <mergeCell ref="K102:Q102"/>
+    <mergeCell ref="K103:Q103"/>
+    <mergeCell ref="K92:Q92"/>
+    <mergeCell ref="K93:Q93"/>
+    <mergeCell ref="K94:Q94"/>
+    <mergeCell ref="K95:Q95"/>
+    <mergeCell ref="K96:Q96"/>
+    <mergeCell ref="K97:Q97"/>
+    <mergeCell ref="K110:Q110"/>
+    <mergeCell ref="K111:Q111"/>
+    <mergeCell ref="K112:Q112"/>
+    <mergeCell ref="K113:Q113"/>
+    <mergeCell ref="K114:Q114"/>
+    <mergeCell ref="K115:Q115"/>
+    <mergeCell ref="K104:Q104"/>
+    <mergeCell ref="K105:Q105"/>
+    <mergeCell ref="K106:Q106"/>
+    <mergeCell ref="K107:Q107"/>
+    <mergeCell ref="K108:Q108"/>
+    <mergeCell ref="K109:Q109"/>
+    <mergeCell ref="K122:Q122"/>
+    <mergeCell ref="K123:Q123"/>
+    <mergeCell ref="K124:Q124"/>
+    <mergeCell ref="K125:Q125"/>
+    <mergeCell ref="K126:Q126"/>
+    <mergeCell ref="K127:Q127"/>
+    <mergeCell ref="K116:Q116"/>
+    <mergeCell ref="K117:Q117"/>
+    <mergeCell ref="K118:Q118"/>
+    <mergeCell ref="K119:Q119"/>
+    <mergeCell ref="K120:Q120"/>
+    <mergeCell ref="K121:Q121"/>
+    <mergeCell ref="K134:Q134"/>
+    <mergeCell ref="K135:Q135"/>
+    <mergeCell ref="K136:Q136"/>
+    <mergeCell ref="K137:Q137"/>
+    <mergeCell ref="K138:Q138"/>
+    <mergeCell ref="K139:Q139"/>
+    <mergeCell ref="K128:Q128"/>
+    <mergeCell ref="K129:Q129"/>
+    <mergeCell ref="K130:Q130"/>
+    <mergeCell ref="K131:Q131"/>
+    <mergeCell ref="K132:Q132"/>
+    <mergeCell ref="K133:Q133"/>
+    <mergeCell ref="K146:Q146"/>
+    <mergeCell ref="K147:Q147"/>
+    <mergeCell ref="K148:Q148"/>
+    <mergeCell ref="K149:Q149"/>
+    <mergeCell ref="K150:Q150"/>
+    <mergeCell ref="K151:Q151"/>
+    <mergeCell ref="K140:Q140"/>
+    <mergeCell ref="K141:Q141"/>
+    <mergeCell ref="K142:Q142"/>
+    <mergeCell ref="K143:Q143"/>
+    <mergeCell ref="K144:Q144"/>
+    <mergeCell ref="K145:Q145"/>
+    <mergeCell ref="K158:Q158"/>
+    <mergeCell ref="K159:Q159"/>
+    <mergeCell ref="K160:Q160"/>
+    <mergeCell ref="K161:Q161"/>
+    <mergeCell ref="K162:Q162"/>
+    <mergeCell ref="K163:Q163"/>
+    <mergeCell ref="K152:Q152"/>
+    <mergeCell ref="K153:Q153"/>
+    <mergeCell ref="K154:Q154"/>
+    <mergeCell ref="K155:Q155"/>
+    <mergeCell ref="K156:Q156"/>
+    <mergeCell ref="K157:Q157"/>
+    <mergeCell ref="K170:Q170"/>
+    <mergeCell ref="K171:Q171"/>
+    <mergeCell ref="K172:Q172"/>
+    <mergeCell ref="K173:Q173"/>
+    <mergeCell ref="K174:Q174"/>
+    <mergeCell ref="K175:Q175"/>
+    <mergeCell ref="K164:Q164"/>
+    <mergeCell ref="K165:Q165"/>
+    <mergeCell ref="K166:Q166"/>
+    <mergeCell ref="K167:Q167"/>
+    <mergeCell ref="K168:Q168"/>
+    <mergeCell ref="K169:Q169"/>
+    <mergeCell ref="K182:Q182"/>
+    <mergeCell ref="K183:Q183"/>
+    <mergeCell ref="K184:Q184"/>
+    <mergeCell ref="K185:Q185"/>
+    <mergeCell ref="K186:Q186"/>
+    <mergeCell ref="K187:Q187"/>
+    <mergeCell ref="K176:Q176"/>
+    <mergeCell ref="K177:Q177"/>
+    <mergeCell ref="K178:Q178"/>
+    <mergeCell ref="K179:Q179"/>
+    <mergeCell ref="K180:Q180"/>
+    <mergeCell ref="K181:Q181"/>
+    <mergeCell ref="K194:Q194"/>
+    <mergeCell ref="K195:Q195"/>
+    <mergeCell ref="K196:Q196"/>
+    <mergeCell ref="K197:Q197"/>
+    <mergeCell ref="K198:Q198"/>
+    <mergeCell ref="K199:Q199"/>
+    <mergeCell ref="K188:Q188"/>
+    <mergeCell ref="K189:Q189"/>
+    <mergeCell ref="K190:Q190"/>
+    <mergeCell ref="K191:Q191"/>
+    <mergeCell ref="K192:Q192"/>
+    <mergeCell ref="K193:Q193"/>
+    <mergeCell ref="K206:Q206"/>
+    <mergeCell ref="K207:Q207"/>
+    <mergeCell ref="K208:Q208"/>
+    <mergeCell ref="K209:Q209"/>
+    <mergeCell ref="K210:Q210"/>
+    <mergeCell ref="K211:Q211"/>
+    <mergeCell ref="K200:Q200"/>
+    <mergeCell ref="K201:Q201"/>
+    <mergeCell ref="K202:Q202"/>
+    <mergeCell ref="K203:Q203"/>
+    <mergeCell ref="K204:Q204"/>
+    <mergeCell ref="K205:Q205"/>
+    <mergeCell ref="K218:Q218"/>
+    <mergeCell ref="K219:Q219"/>
+    <mergeCell ref="K220:Q220"/>
+    <mergeCell ref="K221:Q221"/>
+    <mergeCell ref="K222:Q222"/>
+    <mergeCell ref="K223:Q223"/>
+    <mergeCell ref="K212:Q212"/>
+    <mergeCell ref="K213:Q213"/>
+    <mergeCell ref="K214:Q214"/>
+    <mergeCell ref="K215:Q215"/>
+    <mergeCell ref="K216:Q216"/>
+    <mergeCell ref="K217:Q217"/>
+    <mergeCell ref="K230:Q230"/>
+    <mergeCell ref="K231:Q231"/>
+    <mergeCell ref="K232:Q232"/>
+    <mergeCell ref="K233:Q233"/>
+    <mergeCell ref="K234:Q234"/>
+    <mergeCell ref="K235:Q235"/>
+    <mergeCell ref="K224:Q224"/>
+    <mergeCell ref="K225:Q225"/>
+    <mergeCell ref="K226:Q226"/>
+    <mergeCell ref="K227:Q227"/>
+    <mergeCell ref="K228:Q228"/>
+    <mergeCell ref="K229:Q229"/>
+    <mergeCell ref="K242:Q242"/>
+    <mergeCell ref="K243:Q243"/>
+    <mergeCell ref="K244:Q244"/>
+    <mergeCell ref="K245:Q245"/>
+    <mergeCell ref="K246:Q246"/>
+    <mergeCell ref="K247:Q247"/>
+    <mergeCell ref="K236:Q236"/>
+    <mergeCell ref="K237:Q237"/>
+    <mergeCell ref="K238:Q238"/>
+    <mergeCell ref="K239:Q239"/>
+    <mergeCell ref="K240:Q240"/>
+    <mergeCell ref="K241:Q241"/>
+    <mergeCell ref="K254:Q254"/>
+    <mergeCell ref="K255:Q255"/>
+    <mergeCell ref="K256:Q256"/>
+    <mergeCell ref="K257:Q257"/>
+    <mergeCell ref="K258:Q258"/>
+    <mergeCell ref="K259:Q259"/>
+    <mergeCell ref="K248:Q248"/>
+    <mergeCell ref="K249:Q249"/>
+    <mergeCell ref="K250:Q250"/>
+    <mergeCell ref="K251:Q251"/>
+    <mergeCell ref="K252:Q252"/>
+    <mergeCell ref="K253:Q253"/>
+    <mergeCell ref="K266:Q266"/>
+    <mergeCell ref="K267:Q267"/>
+    <mergeCell ref="K268:Q268"/>
+    <mergeCell ref="K269:Q269"/>
+    <mergeCell ref="K270:Q270"/>
+    <mergeCell ref="K271:Q271"/>
+    <mergeCell ref="K260:Q260"/>
+    <mergeCell ref="K261:Q261"/>
+    <mergeCell ref="K262:Q262"/>
+    <mergeCell ref="K263:Q263"/>
+    <mergeCell ref="K264:Q264"/>
+    <mergeCell ref="K265:Q265"/>
+    <mergeCell ref="K278:Q278"/>
+    <mergeCell ref="K279:Q279"/>
+    <mergeCell ref="K280:Q280"/>
+    <mergeCell ref="K281:Q281"/>
+    <mergeCell ref="K282:Q282"/>
+    <mergeCell ref="K283:Q283"/>
+    <mergeCell ref="K272:Q272"/>
+    <mergeCell ref="K273:Q273"/>
+    <mergeCell ref="K274:Q274"/>
+    <mergeCell ref="K275:Q275"/>
+    <mergeCell ref="K276:Q276"/>
+    <mergeCell ref="K277:Q277"/>
+    <mergeCell ref="K290:Q290"/>
+    <mergeCell ref="K291:Q291"/>
+    <mergeCell ref="K292:Q292"/>
+    <mergeCell ref="K293:Q293"/>
+    <mergeCell ref="K294:Q294"/>
+    <mergeCell ref="K295:Q295"/>
+    <mergeCell ref="K284:Q284"/>
+    <mergeCell ref="K285:Q285"/>
+    <mergeCell ref="K286:Q286"/>
+    <mergeCell ref="K287:Q287"/>
+    <mergeCell ref="K288:Q288"/>
+    <mergeCell ref="K289:Q289"/>
+    <mergeCell ref="K302:Q302"/>
+    <mergeCell ref="K303:Q303"/>
+    <mergeCell ref="K304:Q304"/>
+    <mergeCell ref="K305:Q305"/>
+    <mergeCell ref="K306:Q306"/>
+    <mergeCell ref="K307:Q307"/>
+    <mergeCell ref="K296:Q296"/>
+    <mergeCell ref="K297:Q297"/>
+    <mergeCell ref="K298:Q298"/>
+    <mergeCell ref="K299:Q299"/>
+    <mergeCell ref="K300:Q300"/>
+    <mergeCell ref="K301:Q301"/>
+    <mergeCell ref="K314:Q314"/>
+    <mergeCell ref="K315:Q315"/>
+    <mergeCell ref="K316:Q316"/>
+    <mergeCell ref="K317:Q317"/>
+    <mergeCell ref="K318:Q318"/>
+    <mergeCell ref="K319:Q319"/>
+    <mergeCell ref="K308:Q308"/>
+    <mergeCell ref="K309:Q309"/>
+    <mergeCell ref="K310:Q310"/>
+    <mergeCell ref="K311:Q311"/>
+    <mergeCell ref="K312:Q312"/>
+    <mergeCell ref="K313:Q313"/>
+    <mergeCell ref="K326:Q326"/>
+    <mergeCell ref="K327:Q327"/>
+    <mergeCell ref="K328:Q328"/>
+    <mergeCell ref="K329:Q329"/>
+    <mergeCell ref="K330:Q330"/>
+    <mergeCell ref="K331:Q331"/>
+    <mergeCell ref="K320:Q320"/>
+    <mergeCell ref="K321:Q321"/>
+    <mergeCell ref="K322:Q322"/>
+    <mergeCell ref="K323:Q323"/>
+    <mergeCell ref="K324:Q324"/>
+    <mergeCell ref="K325:Q325"/>
+    <mergeCell ref="K338:Q338"/>
+    <mergeCell ref="K339:Q339"/>
+    <mergeCell ref="K340:Q340"/>
+    <mergeCell ref="K341:Q341"/>
+    <mergeCell ref="K342:Q342"/>
+    <mergeCell ref="K343:Q343"/>
+    <mergeCell ref="K332:Q332"/>
+    <mergeCell ref="K333:Q333"/>
+    <mergeCell ref="K334:Q334"/>
+    <mergeCell ref="K335:Q335"/>
+    <mergeCell ref="K336:Q336"/>
+    <mergeCell ref="K337:Q337"/>
+    <mergeCell ref="K350:Q350"/>
+    <mergeCell ref="K351:Q351"/>
+    <mergeCell ref="K352:Q352"/>
+    <mergeCell ref="K353:Q353"/>
+    <mergeCell ref="K354:Q354"/>
+    <mergeCell ref="K355:Q355"/>
+    <mergeCell ref="K344:Q344"/>
+    <mergeCell ref="K345:Q345"/>
+    <mergeCell ref="K346:Q346"/>
+    <mergeCell ref="K347:Q347"/>
+    <mergeCell ref="K348:Q348"/>
+    <mergeCell ref="K349:Q349"/>
+    <mergeCell ref="K362:Q362"/>
+    <mergeCell ref="K363:Q363"/>
+    <mergeCell ref="K364:Q364"/>
+    <mergeCell ref="K365:Q365"/>
+    <mergeCell ref="K366:Q366"/>
+    <mergeCell ref="K367:Q367"/>
+    <mergeCell ref="K356:Q356"/>
+    <mergeCell ref="K357:Q357"/>
+    <mergeCell ref="K358:Q358"/>
+    <mergeCell ref="K359:Q359"/>
+    <mergeCell ref="K360:Q360"/>
+    <mergeCell ref="K361:Q361"/>
+    <mergeCell ref="K374:Q374"/>
+    <mergeCell ref="K375:Q375"/>
+    <mergeCell ref="K376:Q376"/>
+    <mergeCell ref="K368:Q368"/>
+    <mergeCell ref="K369:Q369"/>
+    <mergeCell ref="K370:Q370"/>
+    <mergeCell ref="K371:Q371"/>
+    <mergeCell ref="K372:Q372"/>
+    <mergeCell ref="K373:Q373"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
